--- a/heat transfer calculation user input sheet.xlsx
+++ b/heat transfer calculation user input sheet.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1-9BdNIiT7Zve61xm0MKrEiBMif4tQ21K\Dads Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Dads Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB64F08-ED81-47C9-8418-CFA55B0F29B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E88AE8-3509-4478-B737-1E8163753C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{661BF5FC-8EDB-49B8-9F5E-EFC5E7050048}"/>
+    <workbookView minimized="1" xWindow="6096" yWindow="348" windowWidth="13824" windowHeight="7176" xr2:uid="{661BF5FC-8EDB-49B8-9F5E-EFC5E7050048}"/>
   </bookViews>
   <sheets>
     <sheet name="Geometry and fabric definition" sheetId="1" r:id="rId1"/>
-    <sheet name="Heat and outside temp profile" sheetId="3" r:id="rId2"/>
-    <sheet name="materials data sheet (hidden)" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Heat and outside temp profile" sheetId="3" r:id="rId4"/>
+    <sheet name="materials data sheet (hidden)" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -590,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -629,11 +628,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1037,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1050,48 +1046,48 @@
   </sheetPr>
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23"/>
-    <col min="6" max="6" width="45.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="16"/>
+    <col min="4" max="4" width="9.109375" style="22"/>
+    <col min="6" max="6" width="45.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="23" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
@@ -1099,11 +1095,11 @@
         <v>43</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>38000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
@@ -1111,11 +1107,11 @@
         <v>43</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1123,14 +1119,14 @@
         <v>18</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
@@ -1138,10 +1134,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>500</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -1151,22 +1147,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -1174,17 +1170,17 @@
         <v>13</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1192,11 +1188,11 @@
         <v>13</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1204,14 +1200,14 @@
         <v>49</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1219,10 +1215,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>120</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="16" t="s">
@@ -1232,22 +1228,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1255,17 +1251,17 @@
         <v>13</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1270,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
@@ -1282,14 +1278,14 @@
         <v>49</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>10</v>
       </c>
@@ -1297,70 +1293,70 @@
         <v>12</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>30</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H29" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>1</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="17">
         <v>5.6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="17">
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>4</v>
       </c>
@@ -1369,14 +1365,14 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1381,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>52</v>
       </c>
@@ -1393,11 +1389,11 @@
         <v>49</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>32</v>
       </c>
@@ -1405,10 +1401,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="23">
+      <c r="D38" s="22">
         <v>500</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="16" t="s">
@@ -1418,7 +1414,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -1426,25 +1422,25 @@
         <v>18</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="23">
-        <f ca="1">500*0.005</f>
+      <c r="D39" s="22">
+        <f>500*0.005</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="21" t="s">
         <v>97</v>
       </c>
       <c r="G42" s="16" t="s">
@@ -1454,7 +1450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>68</v>
       </c>
@@ -1462,11 +1458,11 @@
         <v>43</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>54</v>
       </c>
@@ -1474,11 +1470,11 @@
         <v>43</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="23">
+      <c r="D44" s="22">
         <v>22000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
@@ -1486,14 +1482,14 @@
         <v>18</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="23">
+      <c r="D46" s="22">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>2</v>
       </c>
@@ -1501,10 +1497,10 @@
         <v>12</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="23">
-        <v>0</v>
-      </c>
-      <c r="F48" s="22" t="s">
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G48" s="16" t="s">
@@ -1512,19 +1508,19 @@
       </c>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -1533,13 +1529,13 @@
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +1544,7 @@
       </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -1557,10 +1553,10 @@
       </c>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>7</v>
       </c>
@@ -1568,10 +1564,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="23">
+      <c r="D56" s="22">
         <v>120</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G56" s="16" t="s">
@@ -1581,22 +1577,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="23">
+      <c r="D58" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>4</v>
       </c>
@@ -1604,17 +1600,17 @@
         <v>13</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="23">
+      <c r="D59" s="22">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1619,7 @@
       </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>53</v>
       </c>
@@ -1631,14 +1627,14 @@
         <v>49</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="23">
+      <c r="D62" s="22">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>10</v>
       </c>
@@ -1646,70 +1642,70 @@
         <v>12</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="23">
+      <c r="D64" s="22">
         <v>30</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="30"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H66" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="23">
+      <c r="D67" s="22">
         <v>1</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H67" s="17">
         <v>5.6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="F68" s="22" t="s">
+      <c r="F68" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H68" s="17">
         <v>2.8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>4</v>
       </c>
@@ -1718,14 +1714,14 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1730,7 @@
       </c>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>52</v>
       </c>
@@ -1742,11 +1738,11 @@
         <v>49</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D73" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>32</v>
       </c>
@@ -1754,10 +1750,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="23">
-        <v>0</v>
-      </c>
-      <c r="F75" s="22" t="s">
+      <c r="D75" s="22">
+        <v>0</v>
+      </c>
+      <c r="F75" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G75" s="16" t="s">
@@ -1765,7 +1761,7 @@
       </c>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>33</v>
       </c>
@@ -1773,21 +1769,21 @@
         <v>18</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D76" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="24" t="s">
+    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="21" t="s">
         <v>98</v>
       </c>
       <c r="G79" s="16" t="s">
@@ -1797,7 +1793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>69</v>
       </c>
@@ -1805,11 +1801,11 @@
         <v>43</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D80" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>47</v>
       </c>
@@ -1817,11 +1813,11 @@
         <v>43</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="23">
+      <c r="D81" s="22">
         <v>22000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>50</v>
       </c>
@@ -1829,11 +1825,11 @@
         <v>43</v>
       </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D82" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>17</v>
       </c>
@@ -1841,14 +1837,14 @@
         <v>18</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="23">
+      <c r="D84" s="22">
         <v>1000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
     </row>
-    <row r="86" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>2</v>
       </c>
@@ -1856,10 +1852,10 @@
         <v>12</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="23">
-        <v>0</v>
-      </c>
-      <c r="F86" s="22" t="s">
+      <c r="D86" s="22">
+        <v>0</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G86" s="16" t="s">
@@ -1867,19 +1863,19 @@
       </c>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>4</v>
       </c>
@@ -1888,13 +1884,13 @@
       </c>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>6</v>
       </c>
@@ -1903,7 +1899,7 @@
       </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>48</v>
       </c>
@@ -1912,10 +1908,10 @@
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
     </row>
-    <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>7</v>
       </c>
@@ -1923,10 +1919,10 @@
         <v>12</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="23">
+      <c r="D94" s="22">
         <v>120</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G94" s="16" t="s">
@@ -1936,22 +1932,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="10"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="23">
+      <c r="D96" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>4</v>
       </c>
@@ -1959,17 +1955,17 @@
         <v>13</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="23">
+      <c r="D97" s="22">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>6</v>
       </c>
@@ -1978,7 +1974,7 @@
       </c>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>53</v>
       </c>
@@ -1986,14 +1982,14 @@
         <v>49</v>
       </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="23">
+      <c r="D100" s="22">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
     </row>
-    <row r="102" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
         <v>10</v>
       </c>
@@ -2001,70 +1997,70 @@
         <v>12</v>
       </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="23">
+      <c r="D102" s="22">
         <v>30</v>
       </c>
-      <c r="F102" s="28" t="s">
+      <c r="F102" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="30"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="29"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="10"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="F104" s="22" t="s">
+      <c r="F104" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H104" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="23">
+      <c r="D105" s="22">
         <v>1</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F105" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H105" s="17">
         <v>5.6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H106" s="17">
         <v>2.8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>4</v>
       </c>
@@ -2073,14 +2069,14 @@
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2085,7 @@
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>52</v>
       </c>
@@ -2097,14 +2093,14 @@
         <v>49</v>
       </c>
       <c r="C111" s="1"/>
-      <c r="D111" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D111" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
         <v>39</v>
       </c>
@@ -2112,10 +2108,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="1"/>
-      <c r="D113" s="23">
+      <c r="D113" s="22">
         <v>500</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="F113" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G113" s="16" t="s">
@@ -2125,22 +2121,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B114" s="10"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="1"/>
-      <c r="D115" s="23">
+      <c r="D115" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>4</v>
       </c>
@@ -2148,20 +2144,20 @@
         <v>13</v>
       </c>
       <c r="C116" s="1"/>
-      <c r="D116" s="23">
+      <c r="D116" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C117" s="1"/>
-      <c r="D117" s="23">
+      <c r="D117" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>42</v>
       </c>
@@ -2169,20 +2165,20 @@
         <v>13</v>
       </c>
       <c r="C118" s="1"/>
-      <c r="D118" s="23">
+      <c r="D118" s="22">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="1"/>
-      <c r="D119" s="23">
+      <c r="D119" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>6</v>
       </c>
@@ -2190,11 +2186,11 @@
         <v>13</v>
       </c>
       <c r="C120" s="1"/>
-      <c r="D120" s="23">
+      <c r="D120" s="22">
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>51</v>
       </c>
@@ -2202,11 +2198,11 @@
         <v>49</v>
       </c>
       <c r="C121" s="1"/>
-      <c r="D121" s="23">
+      <c r="D121" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
         <v>32</v>
       </c>
@@ -2214,10 +2210,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="1"/>
-      <c r="D123" s="23">
-        <v>0</v>
-      </c>
-      <c r="F123" s="22" t="s">
+      <c r="D123" s="22">
+        <v>0</v>
+      </c>
+      <c r="F123" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G123" s="16" t="s">
@@ -2225,7 +2221,7 @@
       </c>
       <c r="H123" s="17"/>
     </row>
-    <row r="124" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>33</v>
       </c>
@@ -2233,163 +2229,163 @@
         <v>18</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="D124" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D124" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C125" s="1"/>
-      <c r="D125" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D125" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C128" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="F128" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="25" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B129" s="26"/>
-      <c r="C129" s="27">
+      <c r="B129" s="25"/>
+      <c r="C129" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="25" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B130" s="26"/>
-      <c r="C130" s="27">
+      <c r="B130" s="25"/>
+      <c r="C130" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B131" s="26"/>
-      <c r="C131" s="27">
+      <c r="B131" s="25"/>
+      <c r="C131" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="27">
+      <c r="B132" s="25"/>
+      <c r="C132" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="25" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="27">
+      <c r="B133" s="25"/>
+      <c r="C133" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="25" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="27">
+      <c r="B134" s="25"/>
+      <c r="C134" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B135" s="26"/>
-      <c r="C135" s="27">
+      <c r="B135" s="25"/>
+      <c r="C135" s="26">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="25" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B136" s="26"/>
-      <c r="C136" s="27">
+      <c r="B136" s="25"/>
+      <c r="C136" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="25" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B137" s="26"/>
-      <c r="C137" s="27">
+      <c r="B137" s="25"/>
+      <c r="C137" s="26">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="25" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B138" s="26"/>
-      <c r="C138" s="27">
+      <c r="B138" s="25"/>
+      <c r="C138" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="25" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B139" s="26"/>
-      <c r="C139" s="27">
+      <c r="B139" s="25"/>
+      <c r="C139" s="26">
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="25" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B140" s="26"/>
-      <c r="C140" s="27">
+      <c r="B140" s="25"/>
+      <c r="C140" s="26">
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="25" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B141" s="26"/>
-      <c r="C141" s="27">
+      <c r="B141" s="25"/>
+      <c r="C141" s="26">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B142" s="26"/>
-      <c r="C142" s="27">
+      <c r="B142" s="25"/>
+      <c r="C142" s="26">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="21" t="s">
+    <row r="144" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -2397,8 +2393,8 @@
       </c>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
+    <row r="145" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A145" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -2406,8 +2402,8 @@
       </c>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
+    <row r="146" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -2423,30 +2419,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E4E9C1-05EC-4051-80FC-5A6C0EF06E16}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DF5F85-461C-4B97-9D85-C249C11541DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5E1D92-B205-47DB-91E2-37A00D356C11}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>0</v>
       </c>
@@ -2544,7 +2564,7 @@
       </c>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2621,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2650,7 +2670,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -2679,7 +2699,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -2708,7 +2728,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -2737,7 +2757,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2766,7 +2786,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2795,12 +2815,12 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>0</v>
       </c>
@@ -2897,7 +2917,7 @@
         <v>0.95833333333333293</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2936,7 +2956,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2965,7 +2985,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2994,7 +3014,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3023,7 +3043,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3052,7 +3072,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3081,7 +3101,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3110,20 +3130,20 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>0</v>
       </c>
@@ -3220,7 +3240,7 @@
         <v>0.95833333333333293</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3259,7 +3279,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3288,7 +3308,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3317,7 +3337,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3346,7 +3366,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3375,7 +3395,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -3404,7 +3424,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -3433,20 +3453,20 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <v>0</v>
       </c>
@@ -3543,7 +3563,7 @@
         <v>0.95833333333333293</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -3582,7 +3602,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3611,7 +3631,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3640,7 +3660,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3669,7 +3689,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3698,7 +3718,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3727,7 +3747,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3756,12 +3776,12 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <v>0</v>
       </c>
@@ -3858,7 +3878,7 @@
         <v>0.95833333333333293</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3897,7 +3917,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3926,7 +3946,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -3955,7 +3975,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3984,7 +4004,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -4013,7 +4033,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4042,7 +4062,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -4079,23 +4099,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9C7508-BC25-48DA-B069-A98C8231EB7F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="14" t="s">
         <v>71</v>
       </c>
@@ -4106,7 +4126,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
@@ -4117,7 +4137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
@@ -4134,7 +4154,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -4154,7 +4174,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4174,7 +4194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4191,7 +4211,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4211,7 +4231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4231,7 +4251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4251,7 +4271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4271,7 +4291,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -4292,7 +4312,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4312,7 +4332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -4329,7 +4349,7 @@
         <v>11350</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4349,7 +4369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4369,7 +4389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -4389,7 +4409,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>

--- a/heat transfer calculation user input sheet.xlsx
+++ b/heat transfer calculation user input sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Dads Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1-9BdNIiT7Zve61xm0MKrEiBMif4tQ21K\Dads Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E88AE8-3509-4478-B737-1E8163753C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33431BFE-C554-475E-BBFE-42B22958B2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6096" yWindow="348" windowWidth="13824" windowHeight="7176" xr2:uid="{661BF5FC-8EDB-49B8-9F5E-EFC5E7050048}"/>
+    <workbookView minimized="1" xWindow="150" yWindow="105" windowWidth="13170" windowHeight="15060" xr2:uid="{661BF5FC-8EDB-49B8-9F5E-EFC5E7050048}"/>
   </bookViews>
   <sheets>
     <sheet name="Geometry and fabric definition" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1046,26 +1049,26 @@
   </sheetPr>
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="22"/>
-    <col min="6" max="6" width="45.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="16"/>
+    <col min="4" max="4" width="9.140625" style="22"/>
+    <col min="6" max="6" width="45.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" s="22" t="s">
         <v>96</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
@@ -1082,12 +1085,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1123,10 +1126,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
@@ -1147,13 +1150,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -1174,13 +1177,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
@@ -1204,10 +1207,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1228,13 +1231,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1255,13 +1258,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1273,7 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
@@ -1282,10 +1285,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>10</v>
       </c>
@@ -1304,13 +1307,13 @@
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -1349,14 +1352,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>4</v>
       </c>
@@ -1365,14 +1368,14 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1384,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>52</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>32</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>68</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>54</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
@@ -1483,13 +1486,13 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="22">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>2</v>
       </c>
@@ -1508,19 +1511,19 @@
       </c>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -1529,13 +1532,13 @@
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>6</v>
       </c>
@@ -1544,7 +1547,7 @@
       </c>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
@@ -1553,10 +1556,10 @@
       </c>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>7</v>
       </c>
@@ -1577,13 +1580,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>4</v>
       </c>
@@ -1604,13 +1607,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1622,7 @@
       </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>53</v>
       </c>
@@ -1631,10 +1634,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>10</v>
       </c>
@@ -1653,13 +1656,13 @@
       </c>
       <c r="H64" s="29"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>31</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>29</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>30</v>
       </c>
@@ -1698,14 +1701,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>4</v>
       </c>
@@ -1714,14 +1717,14 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1733,7 @@
       </c>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>52</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>32</v>
       </c>
@@ -1761,7 +1764,7 @@
       </c>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>33</v>
       </c>
@@ -1773,13 +1776,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
         <v>38</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>69</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>47</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>50</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>17</v>
       </c>
@@ -1841,10 +1844,10 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
     </row>
-    <row r="86" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>2</v>
       </c>
@@ -1863,19 +1866,19 @@
       </c>
       <c r="H86" s="17"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>4</v>
       </c>
@@ -1884,13 +1887,13 @@
       </c>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +1902,7 @@
       </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>48</v>
       </c>
@@ -1908,10 +1911,10 @@
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
     </row>
-    <row r="94" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>7</v>
       </c>
@@ -1932,13 +1935,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="10"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>3</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>4</v>
       </c>
@@ -1959,13 +1962,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +1977,7 @@
       </c>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>53</v>
       </c>
@@ -1986,10 +1989,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
     </row>
-    <row r="102" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>10</v>
       </c>
@@ -2008,13 +2011,13 @@
       </c>
       <c r="H102" s="29"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="10"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>31</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>30</v>
       </c>
@@ -2053,14 +2056,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>4</v>
       </c>
@@ -2069,14 +2072,14 @@
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2088,7 @@
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>52</v>
       </c>
@@ -2097,10 +2100,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>39</v>
       </c>
@@ -2121,13 +2124,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B114" s="10"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>3</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>41</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>42</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>51</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>32</v>
       </c>
@@ -2221,7 +2224,7 @@
       </c>
       <c r="H123" s="17"/>
     </row>
-    <row r="124" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>33</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>34</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="9" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="24" t="s">
         <v>35</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="24" t="s">
         <v>19</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="24" t="s">
         <v>23</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="24" t="s">
         <v>21</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
         <v>20</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
         <v>22</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="24" t="s">
         <v>82</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>25</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
         <v>26</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="24" t="s">
         <v>36</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="24" t="s">
         <v>37</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
         <v>80</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
         <v>92</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>94</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A144" s="20" t="s">
         <v>44</v>
       </c>
@@ -2393,7 +2396,7 @@
       </c>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
         <v>45</v>
       </c>
@@ -2402,7 +2405,7 @@
       </c>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A146" s="20" t="s">
         <v>46</v>
       </c>
@@ -2424,7 +2427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2436,7 +2439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2450,23 +2453,23 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="12">
         <v>0</v>
       </c>
@@ -2564,7 +2567,7 @@
       </c>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2670,7 +2673,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -2699,7 +2702,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -2728,7 +2731,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -2757,7 +2760,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2786,7 +2789,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2815,12 +2818,12 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>0</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>0.95833333333333293</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2956,7 +2959,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2985,7 +2988,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3014,7 +3017,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3043,7 +3046,7 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -3072,7 +3075,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3101,7 +3104,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -3130,12 +3133,12 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>101</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <v>0</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>0.95833333333333293</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3279,7 +3282,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3308,7 +3311,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3337,7 +3340,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3366,7 +3369,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3395,7 +3398,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -3424,7 +3427,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -3453,12 +3456,12 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>101</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <v>0</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>0.95833333333333293</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -3602,7 +3605,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3631,7 +3634,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3660,7 +3663,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3689,7 +3692,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3718,7 +3721,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3747,7 +3750,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3776,12 +3779,12 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <v>0</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>0.95833333333333293</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3917,7 +3920,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3946,7 +3949,7 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -3975,7 +3978,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -4004,7 +4007,7 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -4033,7 +4036,7 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -4062,7 +4065,7 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -4107,15 +4110,15 @@
       <selection activeCell="A2" sqref="A2:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1" s="14" t="s">
         <v>71</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4291,7 +4294,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>11350</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4389,7 +4392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
